--- a/一阶项目文件/HX1803班一阶项目进度管控.xlsx
+++ b/一阶项目文件/HX1803班一阶项目进度管控.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yjm\Downloads\web work\CY-work\一阶项目文件\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CC0E45A2-422F-4560-A14D-EFD7CF4F937C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="20415" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="20415" windowHeight="7770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
   <si>
     <t>组长</t>
   </si>
@@ -227,24 +233,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>✓
 ✓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>✓</t>
+  </si>
+  <si>
+    <t>o</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,6 +446,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -463,9 +471,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -486,7 +491,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -528,7 +533,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -560,9 +565,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -594,6 +617,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -769,14 +810,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="4.375" style="2" customWidth="1"/>
@@ -800,106 +841,106 @@
     <col min="24" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="22.5">
+    <row r="1" spans="1:23" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="30.75" customHeight="1">
+    <row r="2" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
       <c r="G2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="11" t="s">
+      <c r="I2" s="13"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="13"/>
-      <c r="M2" s="11" t="s">
+      <c r="L2" s="14"/>
+      <c r="M2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="14"/>
     </row>
-    <row r="3" spans="1:23" ht="73.5" customHeight="1">
+    <row r="3" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="8" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="8" t="s">
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="6" t="s">
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
     </row>
-    <row r="4" spans="1:23" ht="33.75">
+    <row r="4" spans="1:23" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -970,7 +1011,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="50.1" customHeight="1">
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -995,7 +1036,9 @@
       <c r="H5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -1011,7 +1054,7 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="50.1" customHeight="1">
+    <row r="6" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
@@ -1024,7 +1067,9 @@
       <c r="D6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="F6" s="1" t="s">
         <v>45</v>
       </c>
@@ -1050,7 +1095,7 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" ht="50.1" customHeight="1">
+    <row r="7" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
@@ -1075,8 +1120,8 @@
       <c r="H7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="14" t="s">
-        <v>47</v>
+      <c r="I7" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1093,7 +1138,7 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" ht="50.1" customHeight="1">
+    <row r="8" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
@@ -1113,7 +1158,7 @@
         <v>45</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>47</v>
@@ -1134,7 +1179,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" ht="50.1" customHeight="1">
+    <row r="9" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
@@ -1177,7 +1222,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" ht="50.1" customHeight="1">
+    <row r="10" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -1191,7 +1236,7 @@
         <v>45</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>45</v>
@@ -1238,12 +1283,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1251,12 +1296,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1264,12 +1309,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/一阶项目文件/HX1803班一阶项目进度管控.xlsx
+++ b/一阶项目文件/HX1803班一阶项目进度管控.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yjm\Downloads\web work\CY-work\一阶项目文件\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CC0E45A2-422F-4560-A14D-EFD7CF4F937C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="20415" windowHeight="7770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="20415" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="52">
   <si>
     <t>组长</t>
   </si>
@@ -239,6 +233,10 @@
   </si>
   <si>
     <t>✓</t>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>o</t>
@@ -248,8 +246,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -491,7 +489,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -533,7 +531,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -565,27 +563,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -617,24 +597,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -810,14 +772,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="4.375" style="2" customWidth="1"/>
@@ -841,7 +803,7 @@
     <col min="24" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" ht="22.5">
       <c r="A1" s="1"/>
       <c r="B1" s="8" t="s">
         <v>31</v>
@@ -868,7 +830,7 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" ht="30.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -905,7 +867,7 @@
       <c r="V2" s="13"/>
       <c r="W2" s="14"/>
     </row>
-    <row r="3" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23" ht="73.5" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>24</v>
@@ -940,7 +902,7 @@
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
     </row>
-    <row r="4" spans="1:23" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:23" ht="33.75">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1011,7 +973,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23" ht="50.1" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -1037,9 +999,11 @@
         <v>44</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J5" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -1054,7 +1018,7 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23" ht="50.1" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
@@ -1079,7 +1043,9 @@
       <c r="H6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -1095,7 +1061,7 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23" ht="50.1" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
@@ -1124,7 +1090,9 @@
         <v>40</v>
       </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -1138,7 +1106,7 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:23" ht="50.1" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
@@ -1179,7 +1147,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:23" ht="50.1" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
@@ -1208,7 +1176,9 @@
         <v>47</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -1222,7 +1192,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:23" ht="50.1" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -1283,12 +1253,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1296,12 +1266,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1309,12 +1279,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/一阶项目文件/HX1803班一阶项目进度管控.xlsx
+++ b/一阶项目文件/HX1803班一阶项目进度管控.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yjm\Downloads\web work\CY-work\一阶项目文件\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{22894455-C578-4DC4-B698-0A7B29309F7A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="20415" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="20415" windowHeight="7770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="52">
   <si>
     <t>组长</t>
   </si>
@@ -246,8 +252,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -489,7 +495,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -531,7 +537,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -563,9 +569,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -597,6 +621,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -772,14 +814,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="AB17" sqref="AB17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="4.375" style="2" customWidth="1"/>
@@ -803,7 +845,7 @@
     <col min="24" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="22.5">
+    <row r="1" spans="1:23" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="8" t="s">
         <v>31</v>
@@ -830,7 +872,7 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="30.75" customHeight="1">
+    <row r="2" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -867,7 +909,7 @@
       <c r="V2" s="13"/>
       <c r="W2" s="14"/>
     </row>
-    <row r="3" spans="1:23" ht="73.5" customHeight="1">
+    <row r="3" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>24</v>
@@ -902,7 +944,7 @@
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
     </row>
-    <row r="4" spans="1:23" ht="33.75">
+    <row r="4" spans="1:23" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -973,7 +1015,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="50.1" customHeight="1">
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -1002,9 +1044,11 @@
         <v>40</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -1018,7 +1062,7 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="50.1" customHeight="1">
+    <row r="6" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
@@ -1061,7 +1105,7 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" ht="50.1" customHeight="1">
+    <row r="7" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
@@ -1089,12 +1133,16 @@
       <c r="I7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="K7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -1106,7 +1154,7 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" ht="50.1" customHeight="1">
+    <row r="8" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
@@ -1147,7 +1195,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" ht="50.1" customHeight="1">
+    <row r="9" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
@@ -1175,7 +1223,9 @@
       <c r="I9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="K9" s="1" t="s">
         <v>40</v>
       </c>
@@ -1192,7 +1242,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" ht="50.1" customHeight="1">
+    <row r="10" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -1218,10 +1268,14 @@
         <v>40</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="M10" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -1253,12 +1307,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1266,12 +1320,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1279,12 +1333,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/一阶项目文件/HX1803班一阶项目进度管控.xlsx
+++ b/一阶项目文件/HX1803班一阶项目进度管控.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yjm\Downloads\web work\CY-work\一阶项目文件\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{22894455-C578-4DC4-B698-0A7B29309F7A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="20415" windowHeight="7770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="20415" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="51">
   <si>
     <t>组长</t>
   </si>
@@ -239,10 +233,6 @@
   </si>
   <si>
     <t>✓</t>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>o</t>
@@ -252,8 +242,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,12 +263,14 @@
       <b/>
       <sz val="18"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -495,7 +487,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -537,7 +529,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -569,27 +561,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -621,24 +595,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -814,14 +770,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB17" sqref="AB17"/>
+      <selection activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="4.375" style="2" customWidth="1"/>
@@ -845,7 +801,7 @@
     <col min="24" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" ht="22.5">
       <c r="A1" s="1"/>
       <c r="B1" s="8" t="s">
         <v>31</v>
@@ -872,7 +828,7 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" ht="30.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -909,7 +865,7 @@
       <c r="V2" s="13"/>
       <c r="W2" s="14"/>
     </row>
-    <row r="3" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23" ht="73.5" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>24</v>
@@ -944,7 +900,7 @@
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
     </row>
-    <row r="4" spans="1:23" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:23" ht="33.75">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1015,7 +971,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23" ht="50.1" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -1047,10 +1003,12 @@
         <v>40</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+      <c r="M5" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -1062,7 +1020,7 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23" ht="50.1" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
@@ -1076,7 +1034,7 @@
         <v>41</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>45</v>
@@ -1094,18 +1052,24 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="N6" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
+      <c r="U6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23" ht="50.1" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
@@ -1139,12 +1103,18 @@
       <c r="K7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="1"/>
+      <c r="L7" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="M7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -1154,7 +1124,7 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:23" ht="50.1" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
@@ -1195,7 +1165,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:23" ht="50.1" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
@@ -1206,7 +1176,7 @@
         <v>40</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>40</v>
@@ -1229,8 +1199,12 @@
       <c r="K9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+      <c r="L9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -1242,7 +1216,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:23" ht="50.1" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -1267,14 +1241,20 @@
       <c r="H10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="J10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="M10" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1307,12 +1287,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1320,12 +1300,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1333,12 +1313,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/一阶项目文件/HX1803班一阶项目进度管控.xlsx
+++ b/一阶项目文件/HX1803班一阶项目进度管控.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="51">
   <si>
     <t>组长</t>
   </si>
@@ -191,12 +191,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">✓
-✓
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>✓
 ✓</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -233,6 +227,10 @@
   </si>
   <si>
     <t>✓</t>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>o</t>
@@ -774,7 +772,7 @@
   <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC6" sqref="AC6"/>
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -982,20 +980,20 @@
         <v>40</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="I5" s="1" t="s">
         <v>40</v>
       </c>
@@ -1005,18 +1003,24 @@
       <c r="K5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="M5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="1"/>
+      <c r="N5" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
+      <c r="U5" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
@@ -1031,34 +1035,42 @@
         <v>40</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
       <c r="N6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
+      <c r="R6" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1" t="s">
@@ -1080,20 +1092,20 @@
         <v>40</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="I7" s="6" t="s">
         <v>40</v>
       </c>
@@ -1104,24 +1116,30 @@
         <v>40</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P7" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
+      <c r="U7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="W7" s="1"/>
     </row>
     <row r="8" spans="1:23" ht="50.1" customHeight="1">
@@ -1135,34 +1153,42 @@
         <v>40</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
+      <c r="N8" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
+      <c r="U8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="W8" s="1"/>
     </row>
     <row r="9" spans="1:23" ht="50.1" customHeight="1">
@@ -1176,23 +1202,23 @@
         <v>40</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="J9" s="1" t="s">
         <v>40</v>
       </c>
@@ -1200,20 +1226,30 @@
         <v>40</v>
       </c>
       <c r="L9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
+      <c r="Q9" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
+      <c r="U9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="W9" s="1"/>
     </row>
     <row r="10" spans="1:23" ht="50.1" customHeight="1">
@@ -1227,38 +1263,42 @@
         <v>40</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="H10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>

--- a/一阶项目文件/HX1803班一阶项目进度管控.xlsx
+++ b/一阶项目文件/HX1803班一阶项目进度管控.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="51">
   <si>
     <t>组长</t>
   </si>
@@ -772,7 +772,7 @@
   <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
+      <selection activeCell="AB7" sqref="AB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1013,15 +1013,23 @@
         <v>40</v>
       </c>
       <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
+      <c r="P5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="V5" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="W5" s="1"/>
     </row>
     <row r="6" spans="1:23" ht="50.1" customHeight="1">
@@ -1052,7 +1060,9 @@
       <c r="I6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="K6" s="1" t="s">
         <v>48</v>
       </c>
@@ -1065,11 +1075,17 @@
       <c r="N6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
+      <c r="O6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="R6" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
@@ -1171,7 +1187,9 @@
         <v>40</v>
       </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1" t="s">
@@ -1236,7 +1254,7 @@
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>48</v>
@@ -1295,7 +1313,9 @@
       <c r="N10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O10" s="1"/>
+      <c r="O10" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="P10" s="1" t="s">
         <v>49</v>
       </c>
@@ -1303,9 +1323,15 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
+      <c r="U10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
